--- a/Admin/Kostentracking/20FS_pro4E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Admin/Kostentracking/20FS_pro4E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3D02D0-D711-4E94-86E7-2687E3BEB5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045668B-237E-4EEE-AABB-AC21FF79756F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,67 +620,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,67 +789,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,46 +979,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,46 +1148,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,22 +1341,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,16 +1516,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,10 +1817,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,67 +2796,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,67 +2965,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,46 +3155,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3324,46 +3324,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,22 +3517,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3692,16 +3692,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,25 +3993,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5062,67 +5062,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5231,67 +5231,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5421,46 +5421,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,46 +5590,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5783,22 +5783,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5958,16 +5958,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,43 +6259,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7436,67 +7436,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7605,67 +7605,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,46 +7795,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9759999999999991</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.607999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.879999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7964,46 +7964,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.768</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.448</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.536</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5280000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5200000000000014</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8157,22 +8157,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8560000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.7519999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8332,16 +8332,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.984</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0240000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8633,55 +8633,55 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10182,10 +10182,10 @@
   <dimension ref="A2:AS112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="P116" sqref="P116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10242,13 +10242,13 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -10285,19 +10285,19 @@
       <c r="O10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="T10" s="33" t="s">
         <v>19</v>
       </c>
       <c r="U10" s="13" t="s">
@@ -10458,72 +10458,30 @@
         <v>35</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="17">
-        <v>4</v>
-      </c>
-      <c r="F14" s="17">
-        <v>4</v>
-      </c>
-      <c r="G14" s="17">
-        <v>4</v>
-      </c>
-      <c r="H14" s="17">
-        <v>4</v>
-      </c>
-      <c r="I14" s="17">
-        <v>4</v>
-      </c>
-      <c r="J14" s="17">
-        <v>4</v>
-      </c>
-      <c r="K14" s="17">
-        <v>4</v>
-      </c>
-      <c r="L14" s="17">
-        <v>4</v>
-      </c>
-      <c r="M14" s="17">
-        <v>2</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2</v>
-      </c>
-      <c r="O14" s="17">
-        <v>2</v>
-      </c>
-      <c r="P14" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>2</v>
-      </c>
-      <c r="R14" s="17">
-        <v>2</v>
-      </c>
-      <c r="S14" s="17">
-        <v>2</v>
-      </c>
-      <c r="T14" s="17">
-        <v>2</v>
-      </c>
-      <c r="U14" s="17">
-        <v>2</v>
-      </c>
-      <c r="V14" s="17">
-        <v>2</v>
-      </c>
-      <c r="W14" s="17">
-        <v>4</v>
-      </c>
-      <c r="X14" s="17">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>4</v>
-      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
       <c r="AA14" s="20">
         <f>SUM(E14:Y14)</f>
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -10534,87 +10492,87 @@
       <c r="D15" s="7"/>
       <c r="E15" s="18">
         <f>E14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="18">
         <f>E15+F14</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" s="18">
         <f>F15+G14</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" ref="H15:Y15" si="0">G15+H14</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V15" s="18">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W15" s="18">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="X15" s="18">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="18">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -10628,91 +10586,91 @@
       </c>
       <c r="E16" s="11">
         <f>E14*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
         <f>F14*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" ref="G16:Y16" si="1">G14*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="P16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="R16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="S16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="T16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="U16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="11">
         <f>SUM(E16:Y16)</f>
-        <v>7.6159999999999952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
@@ -10725,87 +10683,87 @@
       </c>
       <c r="E17" s="11">
         <f>E16</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <f>E17+F16</f>
-        <v>0.95199999999999996</v>
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" ref="G17:Y17" si="2">F17+G16</f>
-        <v>1.4279999999999999</v>
+        <v>0</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
-        <v>1.9039999999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="2"/>
-        <v>2.8559999999999999</v>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="2"/>
-        <v>3.3319999999999999</v>
+        <v>0</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="2"/>
-        <v>3.8079999999999998</v>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="2"/>
-        <v>4.0459999999999994</v>
+        <v>0</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="2"/>
-        <v>4.2839999999999989</v>
+        <v>0</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="2"/>
-        <v>4.5219999999999985</v>
+        <v>0</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" si="2"/>
-        <v>4.759999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="11">
         <f t="shared" si="2"/>
-        <v>4.9979999999999976</v>
+        <v>0</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" si="2"/>
-        <v>5.2359999999999971</v>
+        <v>0</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" si="2"/>
-        <v>5.4739999999999966</v>
+        <v>0</v>
       </c>
       <c r="T17" s="11">
         <f t="shared" si="2"/>
-        <v>5.7119999999999962</v>
+        <v>0</v>
       </c>
       <c r="U17" s="11">
         <f t="shared" si="2"/>
-        <v>5.9499999999999957</v>
+        <v>0</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="2"/>
-        <v>6.1879999999999953</v>
+        <v>0</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="2"/>
-        <v>6.6639999999999953</v>
+        <v>0</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="2"/>
-        <v>7.1399999999999952</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="2"/>
-        <v>7.6159999999999952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
@@ -10937,21 +10895,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I22" s="20">
-        <v>4</v>
-      </c>
-      <c r="J22" s="20">
-        <v>6</v>
-      </c>
-      <c r="K22" s="20">
-        <v>4</v>
-      </c>
-      <c r="L22" s="20">
-        <v>4</v>
-      </c>
-      <c r="M22" s="20">
-        <v>1</v>
-      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="20">
         <f t="shared" ref="N22" si="5">SUM(N19:N21)</f>
         <v>0</v>
@@ -11002,7 +10950,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
@@ -11029,71 +10977,71 @@
       </c>
       <c r="I23" s="18">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11123,23 +11071,23 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="18"/>
-        <v>0.71399999999999997</v>
+        <v>0</v>
       </c>
       <c r="K24" s="11">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="L24" s="11">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="18"/>
-        <v>0.11899999999999999</v>
+        <v>0</v>
       </c>
       <c r="N24" s="11">
         <f t="shared" si="18"/>
@@ -11191,7 +11139,7 @@
       </c>
       <c r="AA24" s="11">
         <f>SUM(E24:Y24)</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
@@ -11220,71 +11168,71 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>1.6659999999999999</v>
+        <v>0</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>2.1419999999999999</v>
+        <v>0</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" s="11">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="V25" s="11">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="W25" s="11">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="11">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>2.2610000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.2">
@@ -11320,30 +11268,14 @@
         <v>35</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="17">
-        <v>24</v>
-      </c>
-      <c r="F28" s="17">
-        <v>24</v>
-      </c>
-      <c r="G28" s="17">
-        <v>24</v>
-      </c>
-      <c r="H28" s="17">
-        <v>24</v>
-      </c>
-      <c r="I28" s="17">
-        <v>24</v>
-      </c>
-      <c r="J28" s="17">
-        <v>24</v>
-      </c>
-      <c r="K28" s="17">
-        <v>18</v>
-      </c>
-      <c r="L28" s="17">
-        <v>12</v>
-      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -11359,7 +11291,7 @@
       <c r="Y28" s="17"/>
       <c r="AA28" s="20">
         <f>SUM(E28:Y28)</f>
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
@@ -11370,87 +11302,87 @@
       <c r="D29" s="7"/>
       <c r="E29" s="18">
         <f>E28</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F29" s="18">
         <f>E29+F28</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G29" s="18">
         <f>F29+G28</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" ref="H29" si="38">G29+H28</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ref="I29" si="39">H29+I28</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" ref="J29" si="40">I29+J28</f>
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" ref="K29" si="41">J29+K28</f>
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" ref="L29" si="42">K29+L28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" ref="M29" si="43">L29+M28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" ref="N29" si="44">M29+N28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" ref="O29" si="45">N29+O28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="P29" s="18">
         <f t="shared" ref="P29" si="46">O29+P28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="18">
         <f t="shared" ref="Q29" si="47">P29+Q28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="R29" s="18">
         <f t="shared" ref="R29" si="48">Q29+R28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="S29" s="18">
         <f t="shared" ref="S29" si="49">R29+S28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="T29" s="18">
         <f t="shared" ref="T29" si="50">S29+T28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="U29" s="18">
         <f t="shared" ref="U29" si="51">T29+U28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="V29" s="18">
         <f t="shared" ref="V29" si="52">U29+V28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="W29" s="18">
         <f t="shared" ref="W29" si="53">V29+W28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="X29" s="18">
         <f t="shared" ref="X29" si="54">W29+X28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" ref="Y29" si="55">X29+Y28</f>
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="5"/>
     </row>
@@ -11464,35 +11396,35 @@
       </c>
       <c r="E30" s="11">
         <f>E28*$D$7/1000</f>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <f>F28*$D$7/1000</f>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" ref="G30:Y30" si="56">G28*$D$7/1000</f>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="56"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="56"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="56"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" si="56"/>
-        <v>1.224</v>
+        <v>0</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" si="56"/>
-        <v>0.81599999999999995</v>
+        <v>0</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="56"/>
@@ -11548,7 +11480,7 @@
       </c>
       <c r="AA30" s="11">
         <f>SUM(E30:Y30)</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
@@ -11561,87 +11493,87 @@
       </c>
       <c r="E31" s="11">
         <f>E30</f>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="F31" s="11">
         <f>E31+F30</f>
-        <v>3.2639999999999998</v>
+        <v>0</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ref="G31" si="57">F31+G30</f>
-        <v>4.8959999999999999</v>
+        <v>0</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" ref="H31" si="58">G31+H30</f>
-        <v>6.5279999999999996</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ref="I31" si="59">H31+I30</f>
-        <v>8.16</v>
+        <v>0</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" ref="J31" si="60">I31+J30</f>
-        <v>9.7919999999999998</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11">
         <f t="shared" ref="K31" si="61">J31+K30</f>
-        <v>11.016</v>
+        <v>0</v>
       </c>
       <c r="L31" s="11">
         <f t="shared" ref="L31" si="62">K31+L30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" ref="M31" si="63">L31+M30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="N31" s="11">
         <f t="shared" ref="N31" si="64">M31+N30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" ref="O31" si="65">N31+O30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" ref="P31" si="66">O31+P30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="11">
         <f t="shared" ref="Q31" si="67">P31+Q30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="R31" s="11">
         <f t="shared" ref="R31" si="68">Q31+R30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="S31" s="11">
         <f t="shared" ref="S31" si="69">R31+S30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="T31" s="11">
         <f t="shared" ref="T31" si="70">S31+T30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="U31" s="11">
         <f t="shared" ref="U31" si="71">T31+U30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="V31" s="11">
         <f t="shared" ref="V31" si="72">U31+V30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="W31" s="11">
         <f t="shared" ref="W31" si="73">V31+W30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="X31" s="11">
         <f t="shared" ref="X31" si="74">W31+X30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="11">
         <f t="shared" ref="Y31" si="75">X31+Y30</f>
-        <v>11.832000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
@@ -12258,33 +12190,15 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
-      <c r="L45" s="17">
-        <v>15</v>
-      </c>
-      <c r="M45" s="17">
-        <v>15</v>
-      </c>
-      <c r="N45" s="17">
-        <v>10</v>
-      </c>
-      <c r="O45" s="17">
-        <v>20</v>
-      </c>
-      <c r="P45" s="17">
-        <v>24</v>
-      </c>
-      <c r="Q45" s="17">
-        <v>24</v>
-      </c>
-      <c r="R45" s="17">
-        <v>24</v>
-      </c>
-      <c r="S45" s="17">
-        <v>24</v>
-      </c>
-      <c r="T45" s="17">
-        <v>4</v>
-      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
       <c r="W45" s="17"/>
@@ -12292,7 +12206,7 @@
       <c r="Y45" s="17"/>
       <c r="AA45" s="20">
         <f>SUM(E45:Y45)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
@@ -12331,59 +12245,59 @@
       </c>
       <c r="L46" s="18">
         <f t="shared" ref="L46" si="140">K46+L45</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M46" s="18">
         <f t="shared" ref="M46" si="141">L46+M45</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N46" s="18">
         <f t="shared" ref="N46" si="142">M46+N45</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O46" s="18">
         <f t="shared" ref="O46" si="143">N46+O45</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P46" s="18">
         <f t="shared" ref="P46" si="144">O46+P45</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="18">
         <f t="shared" ref="Q46" si="145">P46+Q45</f>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="R46" s="18">
         <f t="shared" ref="R46" si="146">Q46+R45</f>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="S46" s="18">
         <f t="shared" ref="S46" si="147">R46+S45</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="T46" s="18">
         <f t="shared" ref="T46" si="148">S46+T45</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="U46" s="18">
         <f t="shared" ref="U46" si="149">T46+U45</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="V46" s="18">
         <f t="shared" ref="V46" si="150">U46+V45</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="W46" s="18">
         <f t="shared" ref="W46" si="151">V46+W45</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="X46" s="18">
         <f t="shared" ref="X46" si="152">W46+X45</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="18">
         <f t="shared" ref="Y46" si="153">X46+Y45</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="5"/>
     </row>
@@ -12425,39 +12339,39 @@
       </c>
       <c r="L47" s="11">
         <f t="shared" si="154"/>
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="M47" s="11">
         <f t="shared" si="154"/>
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N47" s="11">
         <f t="shared" si="154"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="154"/>
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P47" s="11">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="11">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="R47" s="11">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="S47" s="11">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="T47" s="11">
         <f t="shared" si="154"/>
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
       <c r="U47" s="11">
         <f t="shared" si="154"/>
@@ -12481,7 +12395,7 @@
       </c>
       <c r="AA47" s="11">
         <f>SUM(E47:Y47)</f>
-        <v>10.879999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.2">
@@ -12522,59 +12436,59 @@
       </c>
       <c r="L48" s="11">
         <f t="shared" ref="L48" si="160">K48+L47</f>
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="M48" s="11">
         <f t="shared" ref="M48" si="161">L48+M47</f>
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="N48" s="11">
         <f t="shared" ref="N48" si="162">M48+N47</f>
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="O48" s="11">
         <f t="shared" ref="O48" si="163">N48+O47</f>
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="P48" s="11">
         <f t="shared" ref="P48" si="164">O48+P47</f>
-        <v>5.7119999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="11">
         <f t="shared" ref="Q48" si="165">P48+Q47</f>
-        <v>7.3439999999999994</v>
+        <v>0</v>
       </c>
       <c r="R48" s="11">
         <f t="shared" ref="R48" si="166">Q48+R47</f>
-        <v>8.9759999999999991</v>
+        <v>0</v>
       </c>
       <c r="S48" s="11">
         <f t="shared" ref="S48" si="167">R48+S47</f>
-        <v>10.607999999999999</v>
+        <v>0</v>
       </c>
       <c r="T48" s="11">
         <f t="shared" ref="T48" si="168">S48+T47</f>
-        <v>10.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="U48" s="11">
         <f t="shared" ref="U48" si="169">T48+U47</f>
-        <v>10.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="V48" s="11">
         <f t="shared" ref="V48" si="170">U48+V47</f>
-        <v>10.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="W48" s="11">
         <f t="shared" ref="W48" si="171">V48+W47</f>
-        <v>10.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="X48" s="11">
         <f t="shared" ref="X48" si="172">W48+X47</f>
-        <v>10.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="11">
         <f t="shared" ref="Y48" si="173">X48+Y47</f>
-        <v>10.879999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
@@ -13191,33 +13105,15 @@
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
-      <c r="L62" s="17">
-        <v>13</v>
-      </c>
-      <c r="M62" s="17">
-        <v>13</v>
-      </c>
-      <c r="N62" s="17">
-        <v>10</v>
-      </c>
-      <c r="O62" s="17">
-        <v>16</v>
-      </c>
-      <c r="P62" s="17">
-        <v>22</v>
-      </c>
-      <c r="Q62" s="17">
-        <v>22</v>
-      </c>
-      <c r="R62" s="17">
-        <v>22</v>
-      </c>
-      <c r="S62" s="17">
-        <v>22</v>
-      </c>
-      <c r="T62" s="17">
-        <v>20</v>
-      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
       <c r="W62" s="17"/>
@@ -13225,7 +13121,7 @@
       <c r="Y62" s="17"/>
       <c r="AA62" s="20">
         <f>SUM(E62:Y62)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.2">
@@ -13264,59 +13160,59 @@
       </c>
       <c r="L63" s="18">
         <f t="shared" ref="L63" si="238">K63+L62</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M63" s="18">
         <f t="shared" ref="M63" si="239">L63+M62</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="N63" s="18">
         <f t="shared" ref="N63" si="240">M63+N62</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O63" s="18">
         <f t="shared" ref="O63" si="241">N63+O62</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P63" s="18">
         <f t="shared" ref="P63" si="242">O63+P62</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="18">
         <f t="shared" ref="Q63" si="243">P63+Q62</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="R63" s="18">
         <f t="shared" ref="R63" si="244">Q63+R62</f>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="S63" s="18">
         <f t="shared" ref="S63" si="245">R63+S62</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T63" s="18">
         <f t="shared" ref="T63" si="246">S63+T62</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="U63" s="18">
         <f t="shared" ref="U63" si="247">T63+U62</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="V63" s="18">
         <f t="shared" ref="V63" si="248">U63+V62</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="W63" s="18">
         <f t="shared" ref="W63" si="249">V63+W62</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="X63" s="18">
         <f t="shared" ref="X63" si="250">W63+X62</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="18">
         <f t="shared" ref="Y63" si="251">X63+Y62</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="5"/>
     </row>
@@ -13358,39 +13254,39 @@
       </c>
       <c r="L64" s="11">
         <f t="shared" si="252"/>
-        <v>0.88400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M64" s="11">
         <f t="shared" si="252"/>
-        <v>0.88400000000000001</v>
+        <v>0</v>
       </c>
       <c r="N64" s="11">
         <f t="shared" si="252"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="O64" s="11">
         <f t="shared" si="252"/>
-        <v>1.0880000000000001</v>
+        <v>0</v>
       </c>
       <c r="P64" s="11">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="11">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="R64" s="11">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="S64" s="11">
         <f t="shared" si="252"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="T64" s="11">
         <f t="shared" si="252"/>
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U64" s="11">
         <f t="shared" si="252"/>
@@ -13414,7 +13310,7 @@
       </c>
       <c r="AA64" s="11">
         <f>SUM(E64:Y64)</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.2">
@@ -13455,59 +13351,59 @@
       </c>
       <c r="L65" s="11">
         <f t="shared" ref="L65" si="258">K65+L64</f>
-        <v>0.88400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M65" s="11">
         <f t="shared" ref="M65" si="259">L65+M64</f>
-        <v>1.768</v>
+        <v>0</v>
       </c>
       <c r="N65" s="11">
         <f t="shared" ref="N65" si="260">M65+N64</f>
-        <v>2.448</v>
+        <v>0</v>
       </c>
       <c r="O65" s="11">
         <f t="shared" ref="O65" si="261">N65+O64</f>
-        <v>3.536</v>
+        <v>0</v>
       </c>
       <c r="P65" s="11">
         <f t="shared" ref="P65" si="262">O65+P64</f>
-        <v>5.032</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="11">
         <f t="shared" ref="Q65" si="263">P65+Q64</f>
-        <v>6.5280000000000005</v>
+        <v>0</v>
       </c>
       <c r="R65" s="11">
         <f t="shared" ref="R65" si="264">Q65+R64</f>
-        <v>8.0240000000000009</v>
+        <v>0</v>
       </c>
       <c r="S65" s="11">
         <f t="shared" ref="S65" si="265">R65+S64</f>
-        <v>9.5200000000000014</v>
+        <v>0</v>
       </c>
       <c r="T65" s="11">
         <f t="shared" ref="T65" si="266">S65+T64</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="U65" s="11">
         <f t="shared" ref="U65" si="267">T65+U64</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="V65" s="11">
         <f t="shared" ref="V65" si="268">U65+V64</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="W65" s="11">
         <f t="shared" ref="W65" si="269">V65+W64</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="X65" s="11">
         <f t="shared" ref="X65" si="270">W65+X64</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="11">
         <f t="shared" ref="Y65" si="271">X65+Y64</f>
-        <v>10.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.2">
@@ -14132,25 +14028,15 @@
       <c r="Q80" s="17"/>
       <c r="R80" s="17"/>
       <c r="S80" s="17"/>
-      <c r="T80" s="17">
-        <v>10</v>
-      </c>
-      <c r="U80" s="17">
-        <v>32</v>
-      </c>
-      <c r="V80" s="17">
-        <v>24</v>
-      </c>
-      <c r="W80" s="17">
-        <v>24</v>
-      </c>
-      <c r="X80" s="17">
-        <v>24</v>
-      </c>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="AA80" s="20">
         <f>SUM(E80:Y80)</f>
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.2">
@@ -14221,27 +14107,27 @@
       </c>
       <c r="T81" s="18">
         <f t="shared" ref="T81" si="344">S81+T80</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U81" s="18">
         <f t="shared" ref="U81" si="345">T81+U80</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="V81" s="18">
         <f t="shared" ref="V81" si="346">U81+V80</f>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="W81" s="18">
         <f t="shared" ref="W81" si="347">V81+W80</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="X81" s="18">
         <f t="shared" ref="X81" si="348">W81+X80</f>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="18">
         <f t="shared" ref="Y81" si="349">X81+Y80</f>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="5"/>
     </row>
@@ -14315,23 +14201,23 @@
       </c>
       <c r="T82" s="11">
         <f t="shared" si="350"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="U82" s="11">
         <f t="shared" si="350"/>
-        <v>2.1760000000000002</v>
+        <v>0</v>
       </c>
       <c r="V82" s="11">
         <f t="shared" si="350"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="W82" s="11">
         <f t="shared" si="350"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="X82" s="11">
         <f t="shared" si="350"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="11">
         <f t="shared" si="350"/>
@@ -14339,7 +14225,7 @@
       </c>
       <c r="AA82" s="11">
         <f>SUM(E82:Y82)</f>
-        <v>7.7519999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.2">
@@ -14412,27 +14298,27 @@
       </c>
       <c r="T83" s="11">
         <f t="shared" ref="T83" si="364">S83+T82</f>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="U83" s="11">
         <f t="shared" ref="U83" si="365">T83+U82</f>
-        <v>2.8560000000000003</v>
+        <v>0</v>
       </c>
       <c r="V83" s="11">
         <f t="shared" ref="V83" si="366">U83+V82</f>
-        <v>4.4880000000000004</v>
+        <v>0</v>
       </c>
       <c r="W83" s="11">
         <f t="shared" ref="W83" si="367">V83+W82</f>
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="X83" s="11">
         <f t="shared" ref="X83" si="368">W83+X82</f>
-        <v>7.7519999999999998</v>
+        <v>0</v>
       </c>
       <c r="Y83" s="11">
         <f t="shared" ref="Y83" si="369">X83+Y82</f>
-        <v>7.7519999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.2">
@@ -15059,21 +14945,13 @@
       <c r="S98" s="17"/>
       <c r="T98" s="17"/>
       <c r="U98" s="17"/>
-      <c r="V98" s="17">
-        <v>24</v>
-      </c>
-      <c r="W98" s="17">
-        <v>32</v>
-      </c>
-      <c r="X98" s="17">
-        <v>32</v>
-      </c>
-      <c r="Y98" s="17">
-        <v>30</v>
-      </c>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
+      <c r="X98" s="17"/>
+      <c r="Y98" s="17"/>
       <c r="AA98" s="20">
         <f>SUM(E98:Y98)</f>
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:45" x14ac:dyDescent="0.2">
@@ -15152,19 +15030,19 @@
       </c>
       <c r="V99" s="18">
         <f t="shared" ref="V99" si="444">U99+V98</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="W99" s="18">
         <f t="shared" ref="W99" si="445">V99+W98</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="X99" s="18">
         <f t="shared" ref="X99" si="446">W99+X98</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Y99" s="18">
         <f t="shared" ref="Y99" si="447">X99+Y98</f>
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AA99" s="5"/>
     </row>
@@ -15246,23 +15124,23 @@
       </c>
       <c r="V100" s="11">
         <f t="shared" si="448"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="W100" s="11">
         <f t="shared" si="448"/>
-        <v>2.1760000000000002</v>
+        <v>0</v>
       </c>
       <c r="X100" s="11">
         <f t="shared" si="448"/>
-        <v>2.1760000000000002</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="11">
         <f t="shared" si="448"/>
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="11">
         <f>SUM(E100:Y100)</f>
-        <v>8.0240000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.2">
@@ -15343,19 +15221,19 @@
       </c>
       <c r="V101" s="11">
         <f t="shared" ref="V101" si="464">U101+V100</f>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="W101" s="11">
         <f t="shared" ref="W101" si="465">V101+W100</f>
-        <v>3.8079999999999998</v>
+        <v>0</v>
       </c>
       <c r="X101" s="11">
         <f t="shared" ref="X101" si="466">W101+X100</f>
-        <v>5.984</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="11">
         <f t="shared" ref="Y101" si="467">X101+Y100</f>
-        <v>8.0240000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:45" x14ac:dyDescent="0.2">

--- a/Admin/Kostentracking/20FS_pro4E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Admin/Kostentracking/20FS_pro4E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6045668B-237E-4EEE-AABB-AC21FF79756F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E054E3-B534-4338-8DAA-0E974EB07964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14610" yWindow="6990" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="53">
   <si>
     <t>Plan</t>
   </si>
@@ -151,24 +151,6 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>Ressource-1</t>
-  </si>
-  <si>
-    <t>Ressource-2</t>
-  </si>
-  <si>
-    <t>Ressource-3</t>
-  </si>
-  <si>
-    <t>Ressource-4</t>
-  </si>
-  <si>
-    <t>Ressource-5</t>
-  </si>
-  <si>
-    <t>Ressource-6</t>
-  </si>
-  <si>
     <t>2_Analyse&amp;Entwurf</t>
   </si>
   <si>
@@ -187,10 +169,25 @@
     <t>Wiss. MA</t>
   </si>
   <si>
-    <t>pro4E, Team-x Personalkosten Tracking</t>
+    <t>Projektwoche</t>
   </si>
   <si>
-    <t>Projektwoche</t>
+    <t>pro4E, Team 1 - Personalkosten Tracking</t>
+  </si>
+  <si>
+    <t>Julian Jeisy</t>
+  </si>
+  <si>
+    <t>Reto Gärtner</t>
+  </si>
+  <si>
+    <t>Silvan Burkard</t>
+  </si>
+  <si>
+    <t>Roman Fischer</t>
+  </si>
+  <si>
+    <t>Jenny Meier</t>
   </si>
 </sst>
 </file>
@@ -623,64 +620,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1419999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0939999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.331999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.4509999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.8079999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.9269999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.0459999999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.1649999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.283999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.4029999999999978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.8789999999999978</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.9979999999999976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.5929999999999973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.9499999999999975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,64 +789,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.2959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.123999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16.456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>24.752000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29.580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>34.136000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,34 +988,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,25 +1166,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,25 +1335,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.2640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,10 +1519,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,19 +1805,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,64 +2796,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1419999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0939999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.331999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.4509999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.8079999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.9269999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.0459999999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.1649999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.283999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.4029999999999978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.8789999999999978</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.9979999999999976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.5929999999999973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.9499999999999975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,64 +2965,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.2959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.123999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16.456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>24.752000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29.580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>34.136000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3167,34 +3164,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3345,25 +3342,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,25 +3511,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.2640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,10 +3695,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,34 +3981,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5065,64 +5062,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1419999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0939999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.331999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.4509999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.8079999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.9269999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.0459999999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.1649999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.283999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.4029999999999978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.8789999999999978</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.9979999999999976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.5929999999999973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.9499999999999975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,64 +5231,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.2959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.123999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16.456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>24.752000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29.580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>34.136000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5433,34 +5430,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5611,25 +5608,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5780,25 +5777,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.2640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,10 +5961,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6250,52 +6247,52 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7439,64 +7436,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1419999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.0939999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.2129999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.331999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>3.4509999999999987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.8079999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.9269999999999987</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.0459999999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4.1649999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4.283999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4.4029999999999978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.8789999999999978</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.9979999999999976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.5929999999999973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.9499999999999975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,64 +7605,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.2959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.123999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>16.456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>20.536000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>24.752000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>29.580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.824000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>34.136000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>34.952000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7807,34 +7804,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7985,25 +7982,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>6.5279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>8.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8154,25 +8151,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.2640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8338,10 +8335,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.40799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8624,64 +8621,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10182,16 +10179,16 @@
   <dimension ref="A2:AS112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P116" sqref="P116"/>
+      <selection pane="bottomRight" activeCell="Z98" sqref="Z98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="32" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.7109375" style="1" customWidth="1"/>
@@ -10203,7 +10200,7 @@
   <sheetData>
     <row r="2" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10227,7 +10224,7 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1">
         <v>68</v>
@@ -10243,7 +10240,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="P9" s="34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
@@ -10458,30 +10455,72 @@
         <v>35</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>8</v>
+      </c>
+      <c r="G14" s="17">
+        <v>8</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>3</v>
+      </c>
+      <c r="K14" s="17">
+        <v>5</v>
+      </c>
+      <c r="L14" s="17">
+        <v>1</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1</v>
+      </c>
+      <c r="N14" s="17">
+        <v>1</v>
+      </c>
+      <c r="O14" s="17">
+        <v>3</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1</v>
+      </c>
+      <c r="S14" s="17">
+        <v>1</v>
+      </c>
+      <c r="T14" s="17">
+        <v>1</v>
+      </c>
+      <c r="U14" s="17">
+        <v>3</v>
+      </c>
+      <c r="V14" s="17">
+        <v>1</v>
+      </c>
+      <c r="W14" s="17">
+        <v>1</v>
+      </c>
+      <c r="X14" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>3</v>
+      </c>
       <c r="AA14" s="20">
         <f>SUM(E14:Y14)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.2">
@@ -10496,83 +10535,83 @@
       </c>
       <c r="F15" s="18">
         <f>E15+F14</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" s="18">
         <f>F15+G14</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H15" s="18">
         <f t="shared" ref="H15:Y15" si="0">G15+H14</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="T15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="U15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="W15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="Y15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -10590,87 +10629,87 @@
       </c>
       <c r="F16" s="11">
         <f>F14*$D$6/1000</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" ref="G16:Y16" si="1">G14*$D$6/1000</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="P16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="Q16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="R16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="S16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="T16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="U16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="AA16" s="11">
         <f>SUM(E16:Y16)</f>
-        <v>0</v>
+        <v>5.9499999999999975</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
@@ -10687,83 +10726,83 @@
       </c>
       <c r="F17" s="11">
         <f>E17+F16</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" ref="G17:Y17" si="2">F17+G16</f>
-        <v>0</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0229999999999997</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.1419999999999995</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.4989999999999997</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.0939999999999994</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.2129999999999992</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.331999999999999</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.4509999999999987</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.8079999999999989</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.9269999999999987</v>
       </c>
       <c r="Q17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0459999999999985</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1649999999999983</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.283999999999998</v>
       </c>
       <c r="T17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.4029999999999978</v>
       </c>
       <c r="U17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.759999999999998</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8789999999999978</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9979999999999976</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.5929999999999973</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9499999999999975</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.2">
@@ -10774,13 +10813,15 @@
         <v>39</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="19">
+        <v>8</v>
+      </c>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -10802,13 +10843,13 @@
       <c r="Y19" s="19"/>
       <c r="AA19" s="22">
         <f>SUM(E19:Y19)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>38</v>
@@ -10841,12 +10882,8 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -10885,7 +10922,7 @@
       </c>
       <c r="F22" s="20">
         <f t="shared" ref="F22:H22" si="4">SUM(F19:F21)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G22" s="20">
         <f t="shared" si="4"/>
@@ -10950,7 +10987,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
@@ -10965,83 +11002,83 @@
       </c>
       <c r="F23" s="18">
         <f>E23+F22</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" ref="G23:Y23" si="17">F23+G22</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y23" s="18">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11059,7 +11096,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" ref="F24:Y24" si="18">F22*$D$6/1000</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="18"/>
@@ -11139,7 +11176,7 @@
       </c>
       <c r="AA24" s="11">
         <f>SUM(E24:Y24)</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
@@ -11156,89 +11193,89 @@
       </c>
       <c r="F25" s="11">
         <f>E25+F24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25" si="19">F25+G24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="P25" s="11">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="V25" s="11">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="W25" s="11">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Y25" s="11">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="C27" s="31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D27" s="31"/>
       <c r="AB27" s="32"/>
@@ -11268,17 +11305,39 @@
         <v>35</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>36</v>
+      </c>
+      <c r="G28" s="17">
+        <v>86</v>
+      </c>
+      <c r="H28" s="17">
+        <v>71</v>
+      </c>
+      <c r="I28" s="17">
+        <v>49</v>
+      </c>
+      <c r="J28" s="17">
+        <v>60</v>
+      </c>
+      <c r="K28" s="17">
+        <v>62</v>
+      </c>
+      <c r="L28" s="17">
+        <v>71</v>
+      </c>
+      <c r="M28" s="17">
+        <v>33</v>
+      </c>
+      <c r="N28" s="17">
+        <v>34</v>
+      </c>
+      <c r="O28" s="17">
+        <v>12</v>
+      </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
@@ -11291,7 +11350,7 @@
       <c r="Y28" s="17"/>
       <c r="AA28" s="20">
         <f>SUM(E28:Y28)</f>
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
@@ -11306,83 +11365,83 @@
       </c>
       <c r="F29" s="18">
         <f>E29+F28</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G29" s="18">
         <f>F29+G28</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" ref="H29" si="38">G29+H28</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ref="I29" si="39">H29+I28</f>
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" ref="J29" si="40">I29+J28</f>
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" ref="K29" si="41">J29+K28</f>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" ref="L29" si="42">K29+L28</f>
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" ref="M29" si="43">L29+M28</f>
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" ref="N29" si="44">M29+N28</f>
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" ref="O29" si="45">N29+O28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="P29" s="18">
         <f t="shared" ref="P29" si="46">O29+P28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="Q29" s="18">
         <f t="shared" ref="Q29" si="47">P29+Q28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="R29" s="18">
         <f t="shared" ref="R29" si="48">Q29+R28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="S29" s="18">
         <f t="shared" ref="S29" si="49">R29+S28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="T29" s="18">
         <f t="shared" ref="T29" si="50">S29+T28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="U29" s="18">
         <f t="shared" ref="U29" si="51">T29+U28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="V29" s="18">
         <f t="shared" ref="V29" si="52">U29+V28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="W29" s="18">
         <f t="shared" ref="W29" si="53">V29+W28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="X29" s="18">
         <f t="shared" ref="X29" si="54">W29+X28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" ref="Y29" si="55">X29+Y28</f>
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="AA29" s="5"/>
     </row>
@@ -11400,43 +11459,43 @@
       </c>
       <c r="F30" s="11">
         <f>F28*$D$7/1000</f>
-        <v>0</v>
+        <v>2.448</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" ref="G30:Y30" si="56">G28*$D$7/1000</f>
-        <v>0</v>
+        <v>5.8479999999999999</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.2160000000000002</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="P30" s="11">
         <f t="shared" si="56"/>
@@ -11480,7 +11539,7 @@
       </c>
       <c r="AA30" s="11">
         <f>SUM(E30:Y30)</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
@@ -11497,83 +11556,83 @@
       </c>
       <c r="F31" s="11">
         <f>E31+F30</f>
-        <v>0</v>
+        <v>2.448</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ref="G31" si="57">F31+G30</f>
-        <v>0</v>
+        <v>8.2959999999999994</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" ref="H31" si="58">G31+H30</f>
-        <v>0</v>
+        <v>13.123999999999999</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ref="I31" si="59">H31+I30</f>
-        <v>0</v>
+        <v>16.456</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" ref="J31" si="60">I31+J30</f>
-        <v>0</v>
+        <v>20.536000000000001</v>
       </c>
       <c r="K31" s="11">
         <f t="shared" ref="K31" si="61">J31+K30</f>
-        <v>0</v>
+        <v>24.752000000000002</v>
       </c>
       <c r="L31" s="11">
         <f t="shared" ref="L31" si="62">K31+L30</f>
-        <v>0</v>
+        <v>29.580000000000002</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" ref="M31" si="63">L31+M30</f>
-        <v>0</v>
+        <v>31.824000000000002</v>
       </c>
       <c r="N31" s="11">
         <f t="shared" ref="N31" si="64">M31+N30</f>
-        <v>0</v>
+        <v>34.136000000000003</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" ref="O31" si="65">N31+O30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" ref="P31" si="66">O31+P30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="Q31" s="11">
         <f t="shared" ref="Q31" si="67">P31+Q30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="R31" s="11">
         <f t="shared" ref="R31" si="68">Q31+R30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="S31" s="11">
         <f t="shared" ref="S31" si="69">R31+S30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="T31" s="11">
         <f t="shared" ref="T31" si="70">S31+T30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="U31" s="11">
         <f t="shared" ref="U31" si="71">T31+U30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="V31" s="11">
         <f t="shared" ref="V31" si="72">U31+V30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="W31" s="11">
         <f t="shared" ref="W31" si="73">V31+W30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="X31" s="11">
         <f t="shared" ref="X31" si="74">W31+X30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
       <c r="Y31" s="11">
         <f t="shared" ref="Y31" si="75">X31+Y30</f>
-        <v>0</v>
+        <v>34.952000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
@@ -11581,7 +11640,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>38</v>
@@ -11615,7 +11674,7 @@
     <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B34" s="29"/>
       <c r="C34" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>38</v>
@@ -11646,7 +11705,7 @@
     <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B35" s="29"/>
       <c r="C35" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>38</v>
@@ -11677,7 +11736,7 @@
     <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B36" s="29"/>
       <c r="C36" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>38</v>
@@ -11708,7 +11767,7 @@
     <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
       <c r="C37" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>38</v>
@@ -11741,12 +11800,8 @@
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B38" s="27"/>
-      <c r="C38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -12153,7 +12208,7 @@
     <row r="44" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="C44" s="31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D44" s="31"/>
       <c r="AB44" s="32"/>
@@ -12194,9 +12249,15 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
+      <c r="P45" s="17">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>24</v>
+      </c>
+      <c r="R45" s="17">
+        <v>32</v>
+      </c>
       <c r="S45" s="17"/>
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
@@ -12206,7 +12267,7 @@
       <c r="Y45" s="17"/>
       <c r="AA45" s="20">
         <f>SUM(E45:Y45)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
@@ -12261,43 +12322,43 @@
       </c>
       <c r="P46" s="18">
         <f t="shared" ref="P46" si="144">O46+P45</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q46" s="18">
         <f t="shared" ref="Q46" si="145">P46+Q45</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R46" s="18">
         <f t="shared" ref="R46" si="146">Q46+R45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S46" s="18">
         <f t="shared" ref="S46" si="147">R46+S45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T46" s="18">
         <f t="shared" ref="T46" si="148">S46+T45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U46" s="18">
         <f t="shared" ref="U46" si="149">T46+U45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V46" s="18">
         <f t="shared" ref="V46" si="150">U46+V45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="W46" s="18">
         <f t="shared" ref="W46" si="151">V46+W45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X46" s="18">
         <f t="shared" ref="X46" si="152">W46+X45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y46" s="18">
         <f t="shared" ref="Y46" si="153">X46+Y45</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA46" s="5"/>
     </row>
@@ -12355,15 +12416,15 @@
       </c>
       <c r="P47" s="11">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="Q47" s="11">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="R47" s="11">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="S47" s="11">
         <f t="shared" si="154"/>
@@ -12395,7 +12456,7 @@
       </c>
       <c r="AA47" s="11">
         <f>SUM(E47:Y47)</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.2">
@@ -12452,43 +12513,43 @@
       </c>
       <c r="P48" s="11">
         <f t="shared" ref="P48" si="164">O48+P47</f>
-        <v>0</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="Q48" s="11">
         <f t="shared" ref="Q48" si="165">P48+Q47</f>
-        <v>0</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="R48" s="11">
         <f t="shared" ref="R48" si="166">Q48+R47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="S48" s="11">
         <f t="shared" ref="S48" si="167">R48+S47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="T48" s="11">
         <f t="shared" ref="T48" si="168">S48+T47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="U48" s="11">
         <f t="shared" ref="U48" si="169">T48+U47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="V48" s="11">
         <f t="shared" ref="V48" si="170">U48+V47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="W48" s="11">
         <f t="shared" ref="W48" si="171">V48+W47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="X48" s="11">
         <f t="shared" ref="X48" si="172">W48+X47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="Y48" s="11">
         <f t="shared" ref="Y48" si="173">X48+Y47</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
@@ -12496,7 +12557,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>38</v>
@@ -12530,7 +12591,7 @@
     <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B51" s="29"/>
       <c r="C51" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>38</v>
@@ -12561,7 +12622,7 @@
     <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B52" s="29"/>
       <c r="C52" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>38</v>
@@ -12592,7 +12653,7 @@
     <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B53" s="29"/>
       <c r="C53" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>38</v>
@@ -12623,7 +12684,7 @@
     <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B54" s="27"/>
       <c r="C54" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>38</v>
@@ -12656,12 +12717,8 @@
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B55" s="27"/>
-      <c r="C55" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -13068,7 +13125,7 @@
     <row r="61" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="32"/>
       <c r="C61" s="31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D61" s="31"/>
       <c r="AB61" s="32"/>
@@ -13112,16 +13169,24 @@
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
       <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
+      <c r="S62" s="17">
+        <v>48</v>
+      </c>
+      <c r="T62" s="17">
+        <v>48</v>
+      </c>
+      <c r="U62" s="17">
+        <v>12</v>
+      </c>
+      <c r="V62" s="17">
+        <v>12</v>
+      </c>
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
       <c r="AA62" s="20">
         <f>SUM(E62:Y62)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.2">
@@ -13188,31 +13253,31 @@
       </c>
       <c r="S63" s="18">
         <f t="shared" ref="S63" si="245">R63+S62</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T63" s="18">
         <f t="shared" ref="T63" si="246">S63+T62</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="U63" s="18">
         <f t="shared" ref="U63" si="247">T63+U62</f>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="V63" s="18">
         <f t="shared" ref="V63" si="248">U63+V62</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W63" s="18">
         <f t="shared" ref="W63" si="249">V63+W62</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X63" s="18">
         <f t="shared" ref="X63" si="250">W63+X62</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Y63" s="18">
         <f t="shared" ref="Y63" si="251">X63+Y62</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA63" s="5"/>
     </row>
@@ -13282,19 +13347,19 @@
       </c>
       <c r="S64" s="11">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="T64" s="11">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="U64" s="11">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="V64" s="11">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="W64" s="11">
         <f t="shared" si="252"/>
@@ -13310,7 +13375,7 @@
       </c>
       <c r="AA64" s="11">
         <f>SUM(E64:Y64)</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.2">
@@ -13379,31 +13444,31 @@
       </c>
       <c r="S65" s="11">
         <f t="shared" ref="S65" si="265">R65+S64</f>
-        <v>0</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="T65" s="11">
         <f t="shared" ref="T65" si="266">S65+T64</f>
-        <v>0</v>
+        <v>6.5279999999999996</v>
       </c>
       <c r="U65" s="11">
         <f t="shared" ref="U65" si="267">T65+U64</f>
-        <v>0</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="V65" s="11">
         <f t="shared" ref="V65" si="268">U65+V64</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="W65" s="11">
         <f t="shared" ref="W65" si="269">V65+W64</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="X65" s="11">
         <f t="shared" ref="X65" si="270">W65+X64</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="Y65" s="11">
         <f t="shared" ref="Y65" si="271">X65+Y64</f>
-        <v>0</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.2">
@@ -13411,7 +13476,7 @@
         <v>39</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>38</v>
@@ -13445,7 +13510,7 @@
     <row r="68" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B68" s="29"/>
       <c r="C68" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>38</v>
@@ -13476,7 +13541,7 @@
     <row r="69" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B69" s="29"/>
       <c r="C69" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>38</v>
@@ -13507,7 +13572,7 @@
     <row r="70" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B70" s="29"/>
       <c r="C70" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>38</v>
@@ -13538,7 +13603,7 @@
     <row r="71" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B71" s="27"/>
       <c r="C71" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>38</v>
@@ -13571,12 +13636,8 @@
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B72" s="27"/>
-      <c r="C72" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -13983,7 +14044,7 @@
     <row r="79" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="32"/>
       <c r="C79" s="31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D79" s="31"/>
       <c r="AB79" s="32"/>
@@ -14027,16 +14088,28 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-      <c r="X80" s="17"/>
+      <c r="S80" s="17">
+        <v>10</v>
+      </c>
+      <c r="T80" s="17">
+        <v>10</v>
+      </c>
+      <c r="U80" s="17">
+        <v>14</v>
+      </c>
+      <c r="V80" s="17">
+        <v>14</v>
+      </c>
+      <c r="W80" s="17">
+        <v>26</v>
+      </c>
+      <c r="X80" s="17">
+        <v>26</v>
+      </c>
       <c r="Y80" s="17"/>
       <c r="AA80" s="20">
         <f>SUM(E80:Y80)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:27" x14ac:dyDescent="0.2">
@@ -14103,31 +14176,31 @@
       </c>
       <c r="S81" s="18">
         <f t="shared" ref="S81" si="343">R81+S80</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T81" s="18">
         <f t="shared" ref="T81" si="344">S81+T80</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U81" s="18">
         <f t="shared" ref="U81" si="345">T81+U80</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="V81" s="18">
         <f t="shared" ref="V81" si="346">U81+V80</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W81" s="18">
         <f t="shared" ref="W81" si="347">V81+W80</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="X81" s="18">
         <f t="shared" ref="X81" si="348">W81+X80</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="18">
         <f t="shared" ref="Y81" si="349">X81+Y80</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="5"/>
     </row>
@@ -14197,27 +14270,27 @@
       </c>
       <c r="S82" s="11">
         <f t="shared" si="350"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="T82" s="11">
         <f t="shared" si="350"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="U82" s="11">
         <f t="shared" si="350"/>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="V82" s="11">
         <f t="shared" si="350"/>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="W82" s="11">
         <f t="shared" si="350"/>
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="X82" s="11">
         <f t="shared" si="350"/>
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="Y82" s="11">
         <f t="shared" si="350"/>
@@ -14225,7 +14298,7 @@
       </c>
       <c r="AA82" s="11">
         <f>SUM(E82:Y82)</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.2">
@@ -14294,31 +14367,31 @@
       </c>
       <c r="S83" s="11">
         <f t="shared" ref="S83" si="363">R83+S82</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="T83" s="11">
         <f t="shared" ref="T83" si="364">S83+T82</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U83" s="11">
         <f t="shared" ref="U83" si="365">T83+U82</f>
-        <v>0</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="V83" s="11">
         <f t="shared" ref="V83" si="366">U83+V82</f>
-        <v>0</v>
+        <v>3.2640000000000002</v>
       </c>
       <c r="W83" s="11">
         <f t="shared" ref="W83" si="367">V83+W82</f>
-        <v>0</v>
+        <v>5.032</v>
       </c>
       <c r="X83" s="11">
         <f t="shared" ref="X83" si="368">W83+X82</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Y83" s="11">
         <f t="shared" ref="Y83" si="369">X83+Y82</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="85" spans="2:27" x14ac:dyDescent="0.2">
@@ -14326,7 +14399,7 @@
         <v>39</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>38</v>
@@ -14360,7 +14433,7 @@
     <row r="86" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B86" s="29"/>
       <c r="C86" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>38</v>
@@ -14391,7 +14464,7 @@
     <row r="87" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B87" s="29"/>
       <c r="C87" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>38</v>
@@ -14422,7 +14495,7 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" s="29"/>
       <c r="C88" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>38</v>
@@ -14453,7 +14526,7 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="27"/>
       <c r="C89" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>38</v>
@@ -14486,12 +14559,8 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="27"/>
-      <c r="C90" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
@@ -14898,7 +14967,7 @@
     <row r="97" spans="1:45" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="32"/>
       <c r="C97" s="31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D97" s="31"/>
       <c r="AB97" s="32"/>
@@ -14947,11 +15016,15 @@
       <c r="U98" s="17"/>
       <c r="V98" s="17"/>
       <c r="W98" s="17"/>
-      <c r="X98" s="17"/>
-      <c r="Y98" s="17"/>
+      <c r="X98" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y98" s="17">
+        <v>12</v>
+      </c>
       <c r="AA98" s="20">
         <f>SUM(E98:Y98)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:45" x14ac:dyDescent="0.2">
@@ -15038,11 +15111,11 @@
       </c>
       <c r="X99" s="18">
         <f t="shared" ref="X99" si="446">W99+X98</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y99" s="18">
         <f t="shared" ref="Y99" si="447">X99+Y98</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA99" s="5"/>
     </row>
@@ -15132,15 +15205,15 @@
       </c>
       <c r="X100" s="11">
         <f t="shared" si="448"/>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Y100" s="11">
         <f t="shared" si="448"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AA100" s="11">
         <f>SUM(E100:Y100)</f>
-        <v>0</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="101" spans="1:45" x14ac:dyDescent="0.2">
@@ -15229,11 +15302,11 @@
       </c>
       <c r="X101" s="11">
         <f t="shared" ref="X101" si="466">W101+X100</f>
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="Y101" s="11">
         <f t="shared" ref="Y101" si="467">X101+Y100</f>
-        <v>0</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="103" spans="1:45" x14ac:dyDescent="0.2">
@@ -15241,7 +15314,7 @@
         <v>39</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>38</v>
@@ -15275,7 +15348,7 @@
     <row r="104" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B104" s="29"/>
       <c r="C104" s="12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>38</v>
@@ -15306,7 +15379,7 @@
     <row r="105" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B105" s="29"/>
       <c r="C105" s="12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>38</v>
@@ -15337,7 +15410,7 @@
     <row r="106" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B106" s="29"/>
       <c r="C106" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>38</v>
@@ -15368,7 +15441,7 @@
     <row r="107" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B107" s="27"/>
       <c r="C107" s="12" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>38</v>
@@ -15401,12 +15474,8 @@
     </row>
     <row r="108" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B108" s="27"/>
-      <c r="C108" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
@@ -15827,7 +15896,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Admin/Kostentracking/20FS_pro4E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Admin/Kostentracking/20FS_pro4E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E054E3-B534-4338-8DAA-0E974EB07964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B92CBF2-3B70-4EB3-9643-4A0B5ECF9A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14610" yWindow="6990" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -789,64 +789,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.448</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2959999999999994</c:v>
+                  <c:v>6.6639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.123999999999999</c:v>
+                  <c:v>10.064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.456</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.536000000000001</c:v>
+                  <c:v>16.251999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.752000000000002</c:v>
+                  <c:v>19.855999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.580000000000002</c:v>
+                  <c:v>24.616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.824000000000002</c:v>
+                  <c:v>26.928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.136000000000003</c:v>
+                  <c:v>29.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,34 +988,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>7.6160000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,28 +1163,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.5280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,64 +2965,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.448</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2959999999999994</c:v>
+                  <c:v>6.6639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.123999999999999</c:v>
+                  <c:v>10.064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.456</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.536000000000001</c:v>
+                  <c:v>16.251999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.752000000000002</c:v>
+                  <c:v>19.855999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.580000000000002</c:v>
+                  <c:v>24.616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.824000000000002</c:v>
+                  <c:v>26.928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.136000000000003</c:v>
+                  <c:v>29.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,34 +3164,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>7.6160000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,28 +3339,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.5280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5231,64 +5231,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.448</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2959999999999994</c:v>
+                  <c:v>6.6639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.123999999999999</c:v>
+                  <c:v>10.064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.456</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.536000000000001</c:v>
+                  <c:v>16.251999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.752000000000002</c:v>
+                  <c:v>19.855999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.580000000000002</c:v>
+                  <c:v>24.616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.824000000000002</c:v>
+                  <c:v>26.928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.136000000000003</c:v>
+                  <c:v>29.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5430,34 +5430,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>7.6160000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5605,28 +5605,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.5280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7605,64 +7605,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.448</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2959999999999994</c:v>
+                  <c:v>6.6639999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.123999999999999</c:v>
+                  <c:v>10.064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.456</c:v>
+                  <c:v>12.648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.536000000000001</c:v>
+                  <c:v>16.251999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.752000000000002</c:v>
+                  <c:v>19.855999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.580000000000002</c:v>
+                  <c:v>24.616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.824000000000002</c:v>
+                  <c:v>26.928000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.136000000000003</c:v>
+                  <c:v>29.240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.952000000000005</c:v>
+                  <c:v>30.056000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7804,34 +7804,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>7.6160000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>8.4320000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7979,28 +7979,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.1680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.5280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.16</c:v>
+                  <c:v>7.8880000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10179,10 +10179,10 @@
   <dimension ref="A2:AS112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Z98" sqref="Z98"/>
+      <selection pane="bottomRight" activeCell="AA62" sqref="AA62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11309,28 +11309,28 @@
         <v>0</v>
       </c>
       <c r="F28" s="17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G28" s="17">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="H28" s="17">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I28" s="17">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J28" s="17">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K28" s="17">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L28" s="17">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M28" s="17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N28" s="17">
         <v>34</v>
@@ -11350,7 +11350,7 @@
       <c r="Y28" s="17"/>
       <c r="AA28" s="20">
         <f>SUM(E28:Y28)</f>
-        <v>514</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
@@ -11365,83 +11365,83 @@
       </c>
       <c r="F29" s="18">
         <f>E29+F28</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G29" s="18">
         <f>F29+G28</f>
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="H29" s="18">
         <f t="shared" ref="H29" si="38">G29+H28</f>
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ref="I29" si="39">H29+I28</f>
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="J29" s="18">
         <f t="shared" ref="J29" si="40">I29+J28</f>
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="K29" s="18">
         <f t="shared" ref="K29" si="41">J29+K28</f>
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="L29" s="18">
         <f t="shared" ref="L29" si="42">K29+L28</f>
-        <v>435</v>
+        <v>362</v>
       </c>
       <c r="M29" s="18">
         <f t="shared" ref="M29" si="43">L29+M28</f>
-        <v>468</v>
+        <v>396</v>
       </c>
       <c r="N29" s="18">
         <f t="shared" ref="N29" si="44">M29+N28</f>
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="O29" s="18">
         <f t="shared" ref="O29" si="45">N29+O28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="P29" s="18">
         <f t="shared" ref="P29" si="46">O29+P28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="18">
         <f t="shared" ref="Q29" si="47">P29+Q28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="R29" s="18">
         <f t="shared" ref="R29" si="48">Q29+R28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="S29" s="18">
         <f t="shared" ref="S29" si="49">R29+S28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="T29" s="18">
         <f t="shared" ref="T29" si="50">S29+T28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="U29" s="18">
         <f t="shared" ref="U29" si="51">T29+U28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="V29" s="18">
         <f t="shared" ref="V29" si="52">U29+V28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="W29" s="18">
         <f t="shared" ref="W29" si="53">V29+W28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="X29" s="18">
         <f t="shared" ref="X29" si="54">W29+X28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="Y29" s="18">
         <f t="shared" ref="Y29" si="55">X29+Y28</f>
-        <v>514</v>
+        <v>442</v>
       </c>
       <c r="AA29" s="5"/>
     </row>
@@ -11459,35 +11459,35 @@
       </c>
       <c r="F30" s="11">
         <f>F28*$D$7/1000</f>
-        <v>2.448</v>
+        <v>2.04</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" ref="G30:Y30" si="56">G28*$D$7/1000</f>
-        <v>5.8479999999999999</v>
+        <v>4.6239999999999997</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="56"/>
-        <v>4.8280000000000003</v>
+        <v>3.4</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="56"/>
-        <v>3.3319999999999999</v>
+        <v>2.5840000000000001</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="56"/>
-        <v>4.08</v>
+        <v>3.6040000000000001</v>
       </c>
       <c r="K30" s="11">
         <f t="shared" si="56"/>
-        <v>4.2160000000000002</v>
+        <v>3.6040000000000001</v>
       </c>
       <c r="L30" s="11">
         <f t="shared" si="56"/>
-        <v>4.8280000000000003</v>
+        <v>4.76</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="56"/>
-        <v>2.2440000000000002</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="N30" s="11">
         <f t="shared" si="56"/>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="AA30" s="11">
         <f>SUM(E30:Y30)</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
@@ -11556,83 +11556,83 @@
       </c>
       <c r="F31" s="11">
         <f>E31+F30</f>
-        <v>2.448</v>
+        <v>2.04</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ref="G31" si="57">F31+G30</f>
-        <v>8.2959999999999994</v>
+        <v>6.6639999999999997</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" ref="H31" si="58">G31+H30</f>
-        <v>13.123999999999999</v>
+        <v>10.064</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ref="I31" si="59">H31+I30</f>
-        <v>16.456</v>
+        <v>12.648</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" ref="J31" si="60">I31+J30</f>
-        <v>20.536000000000001</v>
+        <v>16.251999999999999</v>
       </c>
       <c r="K31" s="11">
         <f t="shared" ref="K31" si="61">J31+K30</f>
-        <v>24.752000000000002</v>
+        <v>19.855999999999998</v>
       </c>
       <c r="L31" s="11">
         <f t="shared" ref="L31" si="62">K31+L30</f>
-        <v>29.580000000000002</v>
+        <v>24.616</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" ref="M31" si="63">L31+M30</f>
-        <v>31.824000000000002</v>
+        <v>26.928000000000001</v>
       </c>
       <c r="N31" s="11">
         <f t="shared" ref="N31" si="64">M31+N30</f>
-        <v>34.136000000000003</v>
+        <v>29.240000000000002</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" ref="O31" si="65">N31+O30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" ref="P31" si="66">O31+P30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="Q31" s="11">
         <f t="shared" ref="Q31" si="67">P31+Q30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="R31" s="11">
         <f t="shared" ref="R31" si="68">Q31+R30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="S31" s="11">
         <f t="shared" ref="S31" si="69">R31+S30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="T31" s="11">
         <f t="shared" ref="T31" si="70">S31+T30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="U31" s="11">
         <f t="shared" ref="U31" si="71">T31+U30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="V31" s="11">
         <f t="shared" ref="V31" si="72">U31+V30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="W31" s="11">
         <f t="shared" ref="W31" si="73">V31+W30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="X31" s="11">
         <f t="shared" ref="X31" si="74">W31+X30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
       <c r="Y31" s="11">
         <f t="shared" ref="Y31" si="75">X31+Y30</f>
-        <v>34.952000000000005</v>
+        <v>30.056000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.2">
@@ -12250,15 +12250,17 @@
       <c r="N45" s="17"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q45" s="17">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="R45" s="17">
         <v>32</v>
       </c>
-      <c r="S45" s="17"/>
+      <c r="S45" s="17">
+        <v>12</v>
+      </c>
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
@@ -12267,7 +12269,7 @@
       <c r="Y45" s="17"/>
       <c r="AA45" s="20">
         <f>SUM(E45:Y45)</f>
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.2">
@@ -12322,43 +12324,43 @@
       </c>
       <c r="P46" s="18">
         <f t="shared" ref="P46" si="144">O46+P45</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="Q46" s="18">
         <f t="shared" ref="Q46" si="145">P46+Q45</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="R46" s="18">
         <f t="shared" ref="R46" si="146">Q46+R45</f>
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="S46" s="18">
         <f t="shared" ref="S46" si="147">R46+S45</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="T46" s="18">
         <f t="shared" ref="T46" si="148">S46+T45</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="U46" s="18">
         <f t="shared" ref="U46" si="149">T46+U45</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="V46" s="18">
         <f t="shared" ref="V46" si="150">U46+V45</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="W46" s="18">
         <f t="shared" ref="W46" si="151">V46+W45</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="X46" s="18">
         <f t="shared" ref="X46" si="152">W46+X45</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="Y46" s="18">
         <f t="shared" ref="Y46" si="153">X46+Y45</f>
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="AA46" s="5"/>
     </row>
@@ -12416,11 +12418,11 @@
       </c>
       <c r="P47" s="11">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="Q47" s="11">
         <f t="shared" si="154"/>
-        <v>1.6319999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="R47" s="11">
         <f t="shared" si="154"/>
@@ -12428,7 +12430,7 @@
       </c>
       <c r="S47" s="11">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="T47" s="11">
         <f t="shared" si="154"/>
@@ -12456,7 +12458,7 @@
       </c>
       <c r="AA47" s="11">
         <f>SUM(E47:Y47)</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.2">
@@ -12513,43 +12515,43 @@
       </c>
       <c r="P48" s="11">
         <f t="shared" ref="P48" si="164">O48+P47</f>
-        <v>1.6319999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="Q48" s="11">
         <f t="shared" ref="Q48" si="165">P48+Q47</f>
-        <v>3.2639999999999998</v>
+        <v>5.44</v>
       </c>
       <c r="R48" s="11">
         <f t="shared" ref="R48" si="166">Q48+R47</f>
-        <v>5.4399999999999995</v>
+        <v>7.6160000000000005</v>
       </c>
       <c r="S48" s="11">
         <f t="shared" ref="S48" si="167">R48+S47</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="T48" s="11">
         <f t="shared" ref="T48" si="168">S48+T47</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="U48" s="11">
         <f t="shared" ref="U48" si="169">T48+U47</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="V48" s="11">
         <f t="shared" ref="V48" si="170">U48+V47</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="W48" s="11">
         <f t="shared" ref="W48" si="171">V48+W47</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="X48" s="11">
         <f t="shared" ref="X48" si="172">W48+X47</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="Y48" s="11">
         <f t="shared" ref="Y48" si="173">X48+Y47</f>
-        <v>5.4399999999999995</v>
+        <v>8.4320000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.2">
@@ -13168,25 +13170,27 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
+      <c r="R62" s="17">
+        <v>8</v>
+      </c>
       <c r="S62" s="17">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="T62" s="17">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="U62" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="V62" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
       <c r="AA62" s="20">
         <f>SUM(E62:Y62)</f>
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.2">
@@ -13249,35 +13253,35 @@
       </c>
       <c r="R63" s="18">
         <f t="shared" ref="R63" si="244">Q63+R62</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S63" s="18">
         <f t="shared" ref="S63" si="245">R63+S62</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="T63" s="18">
         <f t="shared" ref="T63" si="246">S63+T62</f>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="U63" s="18">
         <f t="shared" ref="U63" si="247">T63+U62</f>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="V63" s="18">
         <f t="shared" ref="V63" si="248">U63+V62</f>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="W63" s="18">
         <f t="shared" ref="W63" si="249">V63+W62</f>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="X63" s="18">
         <f t="shared" ref="X63" si="250">W63+X62</f>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Y63" s="18">
         <f t="shared" ref="Y63" si="251">X63+Y62</f>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AA63" s="5"/>
     </row>
@@ -13343,23 +13347,23 @@
       </c>
       <c r="R64" s="11">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="S64" s="11">
         <f t="shared" si="252"/>
-        <v>3.2639999999999998</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="T64" s="11">
         <f t="shared" si="252"/>
-        <v>3.2639999999999998</v>
+        <v>2.72</v>
       </c>
       <c r="U64" s="11">
         <f t="shared" si="252"/>
-        <v>0.81599999999999995</v>
+        <v>1.36</v>
       </c>
       <c r="V64" s="11">
         <f t="shared" si="252"/>
-        <v>0.81599999999999995</v>
+        <v>1.36</v>
       </c>
       <c r="W64" s="11">
         <f t="shared" si="252"/>
@@ -13375,7 +13379,7 @@
       </c>
       <c r="AA64" s="11">
         <f>SUM(E64:Y64)</f>
-        <v>8.16</v>
+        <v>7.8880000000000008</v>
       </c>
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.2">
@@ -13440,35 +13444,35 @@
       </c>
       <c r="R65" s="11">
         <f t="shared" ref="R65" si="264">Q65+R64</f>
-        <v>0</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="S65" s="11">
         <f t="shared" ref="S65" si="265">R65+S64</f>
-        <v>3.2639999999999998</v>
+        <v>2.448</v>
       </c>
       <c r="T65" s="11">
         <f t="shared" ref="T65" si="266">S65+T64</f>
-        <v>6.5279999999999996</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="U65" s="11">
         <f t="shared" ref="U65" si="267">T65+U64</f>
-        <v>7.3439999999999994</v>
+        <v>6.5280000000000005</v>
       </c>
       <c r="V65" s="11">
         <f t="shared" ref="V65" si="268">U65+V64</f>
-        <v>8.16</v>
+        <v>7.8880000000000008</v>
       </c>
       <c r="W65" s="11">
         <f t="shared" ref="W65" si="269">V65+W64</f>
-        <v>8.16</v>
+        <v>7.8880000000000008</v>
       </c>
       <c r="X65" s="11">
         <f t="shared" ref="X65" si="270">W65+X64</f>
-        <v>8.16</v>
+        <v>7.8880000000000008</v>
       </c>
       <c r="Y65" s="11">
         <f t="shared" ref="Y65" si="271">X65+Y64</f>
-        <v>8.16</v>
+        <v>7.8880000000000008</v>
       </c>
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.2">
@@ -15895,7 +15899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
